--- a/2009Data/EnergyProfileCharts/TotalsTable.xlsx
+++ b/2009Data/EnergyProfileCharts/TotalsTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>AZ</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>Total Consumption</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +107,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +145,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -135,6 +153,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -144,9 +163,127 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" dataCellStyle="Percent">
+  <autoFilter ref="A1:F9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="AZ" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="CA" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="NM" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="TX" dataDxfId="2" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +611,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -484,8 +621,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,8 +865,12 @@
       <c r="A28" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
